--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.699999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-18.51851851851866</v>
+      </c>
       <c r="L12" t="n">
         <v>31.95</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.399999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-35.29411764705892</v>
+      </c>
       <c r="L13" t="n">
         <v>31.82999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.399999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-48.38709677419353</v>
+      </c>
       <c r="L14" t="n">
         <v>31.71</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-15.78947368421047</v>
+      </c>
       <c r="L15" t="n">
         <v>31.64</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-28.88888888888883</v>
+      </c>
       <c r="L16" t="n">
         <v>31.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-27.27272727272731</v>
+      </c>
       <c r="L17" t="n">
         <v>31.37</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>5</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-27.27272727272731</v>
+      </c>
       <c r="L18" t="n">
         <v>31.25</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>6.100000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>28.57142857142862</v>
+      </c>
       <c r="L19" t="n">
         <v>31.24</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>6.400000000000002</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20.00000000000003</v>
+      </c>
       <c r="L20" t="n">
         <v>31.33000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>7.300000000000004</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-17.39130434782608</v>
+      </c>
       <c r="L21" t="n">
         <v>31.33000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>8.200000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>16.66666666666665</v>
+      </c>
       <c r="L22" t="n">
         <v>31.34000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K23" t="n">
-        <v>-13.33333333333336</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>31.34000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>9.700000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.154639175257765</v>
+        <v>-1.818181818181842</v>
       </c>
       <c r="L24" t="n">
         <v>31.41000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.85148514851484</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>31.33000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.547169811320723</v>
+        <v>10.00000000000001</v>
       </c>
       <c r="L26" t="n">
         <v>31.39000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-11.71171171171168</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>31.39000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.172413793103454</v>
+        <v>-8.196721311475399</v>
       </c>
       <c r="L28" t="n">
         <v>31.45000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.172413793103454</v>
+        <v>-3.448275862068949</v>
       </c>
       <c r="L29" t="n">
         <v>31.40000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>6.79611650485439</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L30" t="n">
         <v>31.38000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9174311926605625</v>
+        <v>-17.39130434782608</v>
       </c>
       <c r="L31" t="n">
         <v>31.39000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9345794392523153</v>
+        <v>13.63636363636365</v>
       </c>
       <c r="L32" t="n">
         <v>31.37000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.851851851851843</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L33" t="n">
         <v>31.35000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>5.172413793103454</v>
+        <v>13.04347826086957</v>
       </c>
       <c r="L34" t="n">
         <v>31.34000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.851851851851843</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>31.40000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>15.30000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>2.912621359223304</v>
+        <v>8.108108108108112</v>
       </c>
       <c r="L36" t="n">
         <v>31.37000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>1.923076923076913</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L37" t="n">
         <v>31.39000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>2.857142857142859</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L38" t="n">
         <v>31.36000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>-8.510638297872333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L39" t="n">
         <v>31.33000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>15.60000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.521739130434787</v>
+        <v>7.142857142857098</v>
       </c>
       <c r="L40" t="n">
         <v>31.29000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>4.761904761904779</v>
+        <v>-13.04347826086955</v>
       </c>
       <c r="L41" t="n">
         <v>31.32000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.666666666666654</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L42" t="n">
         <v>31.29000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>15.90000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>7.246376811594189</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L43" t="n">
         <v>31.36000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>15.90000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.225806451612884</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L44" t="n">
         <v>31.35000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>16.10000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>31.32000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.692307692307714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>31.31000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>4.347826086956495</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L47" t="n">
         <v>31.31000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.00000000000003</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L48" t="n">
         <v>31.3</v>
@@ -2727,7 +2749,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>31.29</v>
@@ -2778,7 +2800,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-10.00000000000003</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L50" t="n">
         <v>31.29</v>
@@ -2829,7 +2851,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>5.882352941176434</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L51" t="n">
         <v>31.28</v>
@@ -2880,7 +2902,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-14.28571428571432</v>
+        <v>-100</v>
       </c>
       <c r="L52" t="n">
         <v>31.27</v>
@@ -2931,7 +2953,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>35.99999999999984</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L53" t="n">
         <v>31.29</v>
@@ -2982,7 +3004,7 @@
         <v>17.10000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>31.27</v>
@@ -3033,7 +3055,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-18.18181818181823</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>31.26</v>
@@ -3084,7 +3106,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>31.26</v>
@@ -3186,7 +3208,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>31.26</v>
@@ -3237,7 +3259,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>31.26</v>
@@ -3288,7 +3310,7 @@
         <v>17.40000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.11111111111107</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L60" t="n">
         <v>31.24</v>
@@ -3339,7 +3361,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>-22.22222222222233</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L61" t="n">
         <v>31.21</v>
@@ -3390,7 +3412,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>-22.22222222222233</v>
+        <v>-100</v>
       </c>
       <c r="L62" t="n">
         <v>31.18</v>
@@ -3441,7 +3463,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>-37.50000000000006</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>31.09999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>-37.50000000000006</v>
+        <v>-100</v>
       </c>
       <c r="L64" t="n">
         <v>31.05999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>31.01999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>17.70000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>-20.0000000000001</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L66" t="n">
         <v>30.98999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>-36.84210526315795</v>
+        <v>-77.77777777777813</v>
       </c>
       <c r="L67" t="n">
         <v>30.91999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-13.04347826086963</v>
+        <v>-23.07692307692324</v>
       </c>
       <c r="L68" t="n">
         <v>30.88999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-37.50000000000007</v>
+        <v>-50.00000000000018</v>
       </c>
       <c r="L69" t="n">
         <v>30.76999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>20.30000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.317073170731741</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>30.75999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.523809523809517</v>
+        <v>-3.448275862068907</v>
       </c>
       <c r="L71" t="n">
         <v>30.74999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>20.70000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-15.55555555555557</v>
+        <v>-12.5</v>
       </c>
       <c r="L72" t="n">
         <v>30.71</v>
@@ -3951,7 +3973,7 @@
         <v>21.60000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-42.85714285714292</v>
+        <v>-31.70731707317076</v>
       </c>
       <c r="L73" t="n">
         <v>30.58</v>
@@ -4002,7 +4024,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.896551724137984</v>
+        <v>1.886792452830153</v>
       </c>
       <c r="L74" t="n">
         <v>30.58</v>
@@ -4053,7 +4075,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.263157894736868</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>30.59</v>
@@ -4104,7 +4126,7 @@
         <v>24.1</v>
       </c>
       <c r="K76" t="n">
-        <v>-21.73913043478266</v>
+        <v>-13.33333333333337</v>
       </c>
       <c r="L76" t="n">
         <v>30.47</v>
@@ -4155,7 +4177,7 @@
         <v>24.1</v>
       </c>
       <c r="K77" t="n">
-        <v>-21.73913043478266</v>
+        <v>-21.42857142857145</v>
       </c>
       <c r="L77" t="n">
         <v>30.39</v>
@@ -4206,7 +4228,7 @@
         <v>24.1</v>
       </c>
       <c r="K78" t="n">
-        <v>-21.73913043478266</v>
+        <v>-6.382978723404281</v>
       </c>
       <c r="L78" t="n">
         <v>30.27</v>
@@ -4257,7 +4279,7 @@
         <v>24.70000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-12</v>
+        <v>-13.6363636363636</v>
       </c>
       <c r="L79" t="n">
         <v>30.3</v>
@@ -4308,7 +4330,7 @@
         <v>24.70000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.589041095890419</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L80" t="n">
         <v>30.24</v>
@@ -4359,7 +4381,7 @@
         <v>24.90000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-10.81081081081079</v>
+        <v>-9.523809523809499</v>
       </c>
       <c r="L81" t="n">
         <v>30.17000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>25.70000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-19.51219512195123</v>
+        <v>-7.317073170731729</v>
       </c>
       <c r="L82" t="n">
         <v>30.05</v>
@@ -4461,7 +4483,7 @@
         <v>26.8</v>
       </c>
       <c r="K83" t="n">
-        <v>-5.376344086021515</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L83" t="n">
         <v>30.13</v>
@@ -4512,7 +4534,7 @@
         <v>27.8</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.56310679611653</v>
+        <v>-30.61224489795919</v>
       </c>
       <c r="L84" t="n">
         <v>29.98</v>
@@ -4563,7 +4585,7 @@
         <v>28.8</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.571428571428596</v>
+        <v>14.89361702127658</v>
       </c>
       <c r="L85" t="n">
         <v>29.93</v>
@@ -4614,7 +4636,7 @@
         <v>29.8</v>
       </c>
       <c r="K86" t="n">
-        <v>-12.39669421487605</v>
+        <v>-5.263157894736855</v>
       </c>
       <c r="L86" t="n">
         <v>29.9</v>
@@ -4665,7 +4687,7 @@
         <v>29.8</v>
       </c>
       <c r="K87" t="n">
-        <v>-9.401709401709422</v>
+        <v>-5.263157894736855</v>
       </c>
       <c r="L87" t="n">
         <v>29.87</v>
@@ -4716,7 +4738,7 @@
         <v>30.8</v>
       </c>
       <c r="K88" t="n">
-        <v>-4.065040650406507</v>
+        <v>1.639344262295048</v>
       </c>
       <c r="L88" t="n">
         <v>29.94</v>
@@ -4767,7 +4789,7 @@
         <v>31.8</v>
       </c>
       <c r="K89" t="n">
-        <v>-4.83870967741937</v>
+        <v>-12.6760563380282</v>
       </c>
       <c r="L89" t="n">
         <v>29.84999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>31.8</v>
       </c>
       <c r="K90" t="n">
-        <v>-13.04347826086957</v>
+        <v>-10.14492753623193</v>
       </c>
       <c r="L90" t="n">
         <v>29.75999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>32.50000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-5.785123966942144</v>
+        <v>11.76470588235295</v>
       </c>
       <c r="L91" t="n">
         <v>29.75999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>33.20000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-8.800000000000011</v>
+        <v>-15.62499999999999</v>
       </c>
       <c r="L92" t="n">
         <v>29.76999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>33.70000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>2.479338842975183</v>
+        <v>8.474576271186432</v>
       </c>
       <c r="L93" t="n">
         <v>29.71999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>33.80000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-8.256880733944936</v>
+        <v>-7.99999999999996</v>
       </c>
       <c r="L94" t="n">
         <v>29.77999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>33.90000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.090909090909086</v>
+        <v>12.19512195121949</v>
       </c>
       <c r="L95" t="n">
         <v>29.72999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>34.40000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>-2.912621359223305</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>29.72999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>1.851851851851844</v>
+        <v>-12.19512195121949</v>
       </c>
       <c r="L97" t="n">
         <v>29.77999999999999</v>

--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.2</v>
+        <v>32.7</v>
       </c>
       <c r="C2" t="n">
-        <v>32.2</v>
+        <v>32.7</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2</v>
+        <v>32.7</v>
       </c>
       <c r="E2" t="n">
-        <v>32.2</v>
+        <v>32.7</v>
       </c>
       <c r="F2" t="n">
-        <v>12138.7506</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>32.31166666666667</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="D3" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="E3" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="F3" t="n">
-        <v>2394</v>
+        <v>200</v>
       </c>
       <c r="G3" t="n">
-        <v>32.265</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>32.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.7</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="C4" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="D4" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="F4" t="n">
-        <v>11336.5217</v>
+        <v>6906.1082</v>
       </c>
       <c r="G4" t="n">
-        <v>32.22166666666667</v>
+        <v>-70.00000000000017</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="C5" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="F5" t="n">
-        <v>410</v>
+        <v>95.7975</v>
       </c>
       <c r="G5" t="n">
-        <v>32.185</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +593,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>32.4</v>
+        <v>31.4</v>
       </c>
       <c r="D6" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>32.4</v>
+        <v>31.4</v>
       </c>
       <c r="F6" t="n">
-        <v>74.7762</v>
+        <v>18816.1064</v>
       </c>
       <c r="G6" t="n">
-        <v>32.14666666666667</v>
+        <v>-38.09523809523817</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1999999999999957</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +636,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="C7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="D7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="E7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>32.13</v>
+        <v>-9.803921568627462</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999432</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +679,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>69.649</v>
+        <v>10.25</v>
       </c>
       <c r="G8" t="n">
-        <v>32.1</v>
+        <v>-11.53846153846158</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
         <v>32.2</v>
@@ -769,32 +731,32 @@
         <v>32.2</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>783.5925</v>
       </c>
       <c r="G9" t="n">
-        <v>32.07833333333334</v>
+        <v>-5.660377358490516</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +765,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.1</v>
+        <v>32.2</v>
       </c>
       <c r="C10" t="n">
-        <v>30.9</v>
+        <v>32.2</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1</v>
+        <v>32.2</v>
       </c>
       <c r="E10" t="n">
-        <v>30.9</v>
+        <v>32.2</v>
       </c>
       <c r="F10" t="n">
-        <v>22227.0651</v>
+        <v>11805.1599</v>
       </c>
       <c r="G10" t="n">
-        <v>32.05333333333333</v>
+        <v>-11.99999999999989</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +808,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="C11" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="D11" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="E11" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="F11" t="n">
-        <v>6475.9302</v>
+        <v>6297.2171</v>
       </c>
       <c r="G11" t="n">
-        <v>32.02166666666668</v>
+        <v>-5.882352941176553</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>31.99999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +851,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.7</v>
+        <v>32.4</v>
       </c>
       <c r="C12" t="n">
-        <v>31.7</v>
+        <v>32.4</v>
       </c>
       <c r="D12" t="n">
-        <v>31.7</v>
+        <v>32.4</v>
       </c>
       <c r="E12" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="F12" t="n">
-        <v>78.70659999999999</v>
+        <v>32906.2473</v>
       </c>
       <c r="G12" t="n">
-        <v>32.00666666666667</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5000000000000036</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.699999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="K12" t="n">
-        <v>-18.51851851851866</v>
-      </c>
-      <c r="L12" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +894,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="F13" t="n">
-        <v>14477.7553</v>
+        <v>42758.632</v>
       </c>
       <c r="G13" t="n">
-        <v>31.98333333333334</v>
+        <v>-14.2857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.399999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="K13" t="n">
-        <v>-35.29411764705892</v>
-      </c>
-      <c r="L13" t="n">
-        <v>31.82999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +937,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="F14" t="n">
-        <v>11218.5314</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>31.95833333333334</v>
+        <v>-8.474576271186438</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.399999999999999</v>
+        <v>30.8</v>
       </c>
       <c r="K14" t="n">
-        <v>-48.38709677419353</v>
-      </c>
-      <c r="L14" t="n">
-        <v>31.71</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,46 +980,42 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>1857.8402</v>
       </c>
       <c r="G15" t="n">
-        <v>31.94833333333334</v>
+        <v>12.50000000000003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.199999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="K15" t="n">
-        <v>-15.78947368421047</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
+        <v>32.7</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9735932721712537</v>
       </c>
     </row>
     <row r="16">
@@ -1079,45 +1023,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>6459.7404</v>
+        <v>25266.3785</v>
       </c>
       <c r="G16" t="n">
-        <v>31.94</v>
+        <v>-10.52631578947364</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K16" t="n">
-        <v>-28.88888888888883</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,42 +1069,38 @@
         <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>4355.9479</v>
+        <v>5363.7351</v>
       </c>
       <c r="G17" t="n">
-        <v>31.91666666666667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K17" t="n">
-        <v>-27.27272727272731</v>
-      </c>
-      <c r="L17" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1109,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="E18" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="F18" t="n">
-        <v>13016.5853</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>31.90166666666667</v>
+        <v>-11.76470588235302</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K18" t="n">
-        <v>-27.27272727272731</v>
-      </c>
-      <c r="L18" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1152,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>32</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-5.555555555555638</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
         <v>31.8</v>
       </c>
-      <c r="C19" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2155.75839439</v>
-      </c>
-      <c r="G19" t="n">
-        <v>31.91333333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.100000000000001</v>
-      </c>
       <c r="K19" t="n">
-        <v>28.57142857142862</v>
-      </c>
-      <c r="L19" t="n">
-        <v>31.24</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1195,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="F20" t="n">
-        <v>6492.991</v>
+        <v>12517.9099</v>
       </c>
       <c r="G20" t="n">
-        <v>31.93333333333333</v>
+        <v>-11.76470588235289</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.4000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>6.400000000000002</v>
+        <v>32</v>
       </c>
       <c r="K20" t="n">
-        <v>20.00000000000003</v>
-      </c>
-      <c r="L20" t="n">
-        <v>31.33000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1238,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="C21" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="F21" t="n">
-        <v>465.8416</v>
+        <v>110</v>
       </c>
       <c r="G21" t="n">
-        <v>31.93</v>
+        <v>-11.76470588235289</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>7.300000000000004</v>
+        <v>32</v>
       </c>
       <c r="K21" t="n">
-        <v>-17.39130434782608</v>
-      </c>
-      <c r="L21" t="n">
-        <v>31.33000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>31.665</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1281,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>159.6002</v>
       </c>
       <c r="G22" t="n">
-        <v>31.93</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.200000000000006</v>
+        <v>32</v>
       </c>
       <c r="K22" t="n">
-        <v>16.66666666666665</v>
-      </c>
-      <c r="L22" t="n">
-        <v>31.34000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>31.64499999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1324,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>2.5768</v>
       </c>
       <c r="G23" t="n">
-        <v>31.91666666666667</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>9.000000000000007</v>
+        <v>32</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>31.34000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>31.58499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1367,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C24" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D24" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E24" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G24" t="n">
-        <v>31.91166666666667</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.5000000000000036</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>9.700000000000006</v>
+        <v>31.9</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.818181818181842</v>
-      </c>
-      <c r="L24" t="n">
-        <v>31.41000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>31.55999999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1410,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.1</v>
+        <v>31.8</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="D25" t="n">
-        <v>31.1</v>
+        <v>31.8</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="F25" t="n">
-        <v>5217.5208</v>
+        <v>43.5048</v>
       </c>
       <c r="G25" t="n">
-        <v>31.87833333333334</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>10.40000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>31.33000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>31.48499999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1453,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>19831.3204</v>
       </c>
       <c r="G26" t="n">
-        <v>31.855</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>11.00000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="K26" t="n">
-        <v>10.00000000000001</v>
-      </c>
-      <c r="L26" t="n">
-        <v>31.39000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>31.44499999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,35 +1508,29 @@
         <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>5044.9689</v>
+        <v>40530.6172</v>
       </c>
       <c r="G27" t="n">
-        <v>31.82166666666667</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>11.60000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>31.39000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1660,45 +1542,39 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="F28" t="n">
-        <v>21.7594</v>
+        <v>38725.8486</v>
       </c>
       <c r="G28" t="n">
-        <v>31.8</v>
+        <v>-100</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>12.20000000000001</v>
+        <v>31</v>
       </c>
       <c r="K28" t="n">
-        <v>-8.196721311475399</v>
-      </c>
-      <c r="L28" t="n">
-        <v>31.45000000000001</v>
+        <v>30.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>31.34999999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
+        <v>1.001493506493507</v>
       </c>
     </row>
     <row r="29">
@@ -1706,47 +1582,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>9409.6096</v>
       </c>
       <c r="G29" t="n">
-        <v>31.78333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>12.20000000000001</v>
+        <v>31</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.448275862068949</v>
-      </c>
-      <c r="L29" t="n">
-        <v>31.40000000000001</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>31.31999999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1621,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="C30" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="D30" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="E30" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>79914.15640000001</v>
       </c>
       <c r="G30" t="n">
-        <v>31.76833333333333</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>12.20000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571433</v>
-      </c>
-      <c r="L30" t="n">
-        <v>31.38000000000001</v>
+        <v>31</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>31.355</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1664,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>32.3</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>32.3</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="F31" t="n">
-        <v>27509.7348</v>
+        <v>17447.9721</v>
       </c>
       <c r="G31" t="n">
-        <v>31.73833333333333</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>12.80000000000001</v>
+        <v>32.3</v>
       </c>
       <c r="K31" t="n">
-        <v>-17.39130434782608</v>
-      </c>
-      <c r="L31" t="n">
-        <v>31.39000000000001</v>
+        <v>31</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="N31" t="n">
-        <v>31.57333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1707,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="C32" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="D32" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="E32" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="F32" t="n">
-        <v>25</v>
+        <v>12138.7506</v>
       </c>
       <c r="G32" t="n">
-        <v>31.72</v>
+        <v>7.317073170731808</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>13.40000000000001</v>
+        <v>31.4</v>
       </c>
       <c r="K32" t="n">
-        <v>13.63636363636365</v>
-      </c>
-      <c r="L32" t="n">
-        <v>31.37000000000002</v>
-      </c>
+        <v>31.4</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>31.355</v>
-      </c>
-      <c r="N32" t="n">
-        <v>31.55333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1746,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="C33" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="D33" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="E33" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="F33" t="n">
-        <v>12403.2513</v>
+        <v>2394</v>
       </c>
       <c r="G33" t="n">
-        <v>31.69</v>
+        <v>10.00000000000005</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>14.20000000000001</v>
+        <v>32.2</v>
       </c>
       <c r="K33" t="n">
-        <v>-19.99999999999994</v>
-      </c>
-      <c r="L33" t="n">
-        <v>31.35000000000002</v>
+        <v>31.4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>31.34499999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>31.50666666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1789,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="C34" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="D34" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="E34" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>11336.5217</v>
       </c>
       <c r="G34" t="n">
-        <v>31.69</v>
+        <v>10.00000000000005</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>15.00000000000001</v>
+        <v>32.2</v>
       </c>
       <c r="K34" t="n">
-        <v>13.04347826086957</v>
-      </c>
-      <c r="L34" t="n">
-        <v>31.34000000000002</v>
+        <v>31.4</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>31.37499999999999</v>
-      </c>
-      <c r="N34" t="n">
-        <v>31.48666666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1832,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="F35" t="n">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="G35" t="n">
-        <v>31.67333333333333</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>15.00000000000001</v>
+        <v>32.2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>31.40000000000002</v>
-      </c>
+        <v>32.2</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>31.365</v>
-      </c>
-      <c r="N35" t="n">
-        <v>31.45666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1871,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31.3</v>
+        <v>32.4</v>
       </c>
       <c r="C36" t="n">
-        <v>31.3</v>
+        <v>32.4</v>
       </c>
       <c r="D36" t="n">
-        <v>31.3</v>
+        <v>32.4</v>
       </c>
       <c r="E36" t="n">
-        <v>31.3</v>
+        <v>32.4</v>
       </c>
       <c r="F36" t="n">
-        <v>211</v>
+        <v>74.7762</v>
       </c>
       <c r="G36" t="n">
-        <v>31.67166666666666</v>
+        <v>38.88888888888884</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>15.30000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="K36" t="n">
-        <v>8.108108108108112</v>
-      </c>
-      <c r="L36" t="n">
-        <v>31.37000000000002</v>
+        <v>32.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="N36" t="n">
-        <v>31.42</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1914,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="C37" t="n">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="D37" t="n">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="E37" t="n">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="F37" t="n">
-        <v>5492.8031</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n">
-        <v>31.65166666666666</v>
+        <v>35.13513513513503</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>15.40000000000002</v>
+        <v>32.4</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.50000000000004</v>
-      </c>
-      <c r="L37" t="n">
-        <v>31.39000000000002</v>
+        <v>32.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>31.39</v>
-      </c>
-      <c r="N37" t="n">
-        <v>31.38333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1957,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="C38" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="D38" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="E38" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="F38" t="n">
-        <v>48</v>
+        <v>69.649</v>
       </c>
       <c r="G38" t="n">
-        <v>31.63999999999999</v>
+        <v>35.13513513513529</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>15.50000000000002</v>
+        <v>32.3</v>
       </c>
       <c r="K38" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L38" t="n">
-        <v>31.36000000000002</v>
-      </c>
+        <v>32.3</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>31.40499999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>31.35333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1996,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="C39" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="D39" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="E39" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="F39" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>31.62499999999999</v>
+        <v>-4.34782608695628</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>15.50000000000002</v>
+        <v>32.2</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L39" t="n">
-        <v>31.33000000000002</v>
+        <v>32.3</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>31.36499999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>31.32333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +2039,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="C40" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="D40" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="E40" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F40" t="n">
-        <v>87</v>
+        <v>22227.0651</v>
       </c>
       <c r="G40" t="n">
-        <v>31.60833333333333</v>
+        <v>-18.5185185185185</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>15.60000000000002</v>
+        <v>32.2</v>
       </c>
       <c r="K40" t="n">
-        <v>7.142857142857098</v>
-      </c>
-      <c r="L40" t="n">
-        <v>31.29000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>31.335</v>
-      </c>
-      <c r="N40" t="n">
-        <v>31.33333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +2082,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="C41" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="D41" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="E41" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="F41" t="n">
-        <v>95</v>
+        <v>6475.9302</v>
       </c>
       <c r="G41" t="n">
-        <v>31.58999999999999</v>
+        <v>-68.42105263157923</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>15.70000000000002</v>
+        <v>30.9</v>
       </c>
       <c r="K41" t="n">
-        <v>-13.04347826086955</v>
-      </c>
-      <c r="L41" t="n">
-        <v>31.32000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>31.355</v>
-      </c>
-      <c r="N41" t="n">
-        <v>31.34666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +2125,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="C42" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="D42" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="E42" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F42" t="n">
-        <v>5465.0719</v>
+        <v>78.70659999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>31.57166666666665</v>
+        <v>-18.51851851851863</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>15.70000000000002</v>
+        <v>30.9</v>
       </c>
       <c r="K42" t="n">
-        <v>33.33333333333318</v>
-      </c>
-      <c r="L42" t="n">
-        <v>31.29000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>31.32999999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>31.33333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +2168,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C43" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="E43" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n">
-        <v>11942.6418</v>
+        <v>14477.7553</v>
       </c>
       <c r="G43" t="n">
-        <v>31.58333333333332</v>
+        <v>-35.29411764705885</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.7000000000000028</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>15.90000000000002</v>
+        <v>31.7</v>
       </c>
       <c r="K43" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L43" t="n">
-        <v>31.36000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>31.355</v>
-      </c>
-      <c r="N43" t="n">
-        <v>31.34999999999999</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +2211,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="E44" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="F44" t="n">
-        <v>1178.1904</v>
+        <v>11218.5314</v>
       </c>
       <c r="G44" t="n">
-        <v>31.57333333333332</v>
+        <v>-48.38709677419342</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.7000000000000028</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>15.90000000000002</v>
+        <v>31</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L44" t="n">
-        <v>31.35000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>31.34499999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>31.36666666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2254,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="C45" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="D45" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="E45" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="F45" t="n">
-        <v>2010</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
-        <v>31.56166666666666</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>16.10000000000002</v>
+        <v>31</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>31.32000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>31.35999999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>31.34999999999999</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2297,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C46" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="E46" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F46" t="n">
-        <v>3129</v>
+        <v>6459.7404</v>
       </c>
       <c r="G46" t="n">
-        <v>31.54833333333332</v>
+        <v>-28.88888888888883</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>16.20000000000002</v>
+        <v>31.8</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>31.31000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>31.33999999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>31.35666666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2340,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C47" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F47" t="n">
-        <v>150.1587</v>
+        <v>4355.9479</v>
       </c>
       <c r="G47" t="n">
-        <v>31.53499999999999</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>16.20000000000002</v>
+        <v>31</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L47" t="n">
-        <v>31.31000000000001</v>
+        <v>32.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>31.34999999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>31.36333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2383,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="C48" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E48" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F48" t="n">
-        <v>2627</v>
+        <v>13016.5853</v>
       </c>
       <c r="G48" t="n">
-        <v>31.52499999999999</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>16.20000000000002</v>
+        <v>31</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L48" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>31.32999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2426,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="C49" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="D49" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="E49" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="F49" t="n">
-        <v>5517</v>
+        <v>2155.75839439</v>
       </c>
       <c r="G49" t="n">
-        <v>31.51166666666666</v>
+        <v>28.57142857142862</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>16.20000000000002</v>
+        <v>31</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>31.29</v>
+        <v>32.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="N49" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2469,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="C50" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="D50" t="n">
-        <v>31.2</v>
+        <v>31.9</v>
       </c>
       <c r="E50" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F50" t="n">
-        <v>5836</v>
+        <v>6492.991</v>
       </c>
       <c r="G50" t="n">
-        <v>31.49833333333333</v>
+        <v>20.00000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>16.20000000000002</v>
+        <v>32.1</v>
       </c>
       <c r="K50" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L50" t="n">
-        <v>31.29</v>
+        <v>32.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="N50" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,50 +2512,42 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="C51" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="D51" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="E51" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F51" t="n">
-        <v>5255</v>
+        <v>465.8416</v>
       </c>
       <c r="G51" t="n">
-        <v>31.485</v>
+        <v>-17.39130434782607</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>16.20000000000002</v>
+        <v>31.8</v>
       </c>
       <c r="K51" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L51" t="n">
-        <v>31.28</v>
+        <v>32.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
+        <v>0.9516563467492261</v>
       </c>
     </row>
     <row r="52">
@@ -2875,49 +2555,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="C52" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="D52" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="E52" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="F52" t="n">
-        <v>2890</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>31.47166666666666</v>
+        <v>16.66666666666664</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>16.20000000000002</v>
+        <v>30.9</v>
       </c>
       <c r="K52" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>31.27</v>
+        <v>31.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>31.28</v>
-      </c>
-      <c r="N52" t="n">
-        <v>31.31000000000001</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2598,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C53" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="E53" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F53" t="n">
-        <v>210</v>
+        <v>20000</v>
       </c>
       <c r="G53" t="n">
-        <v>31.46833333333333</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.5000000000000036</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>16.70000000000002</v>
+        <v>31.8</v>
       </c>
       <c r="K53" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L53" t="n">
-        <v>31.29</v>
+        <v>31.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>31.32500000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>31.33333333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2641,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="C54" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="D54" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="E54" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F54" t="n">
-        <v>1909</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>31.45999999999999</v>
+        <v>-1.818181818181839</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.9000000000000021</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>17.10000000000002</v>
+        <v>31</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>31.27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="N54" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2680,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31</v>
+      </c>
+      <c r="D55" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>31</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5217.5208</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
         <v>31.7</v>
       </c>
-      <c r="C55" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>46000.6124</v>
-      </c>
-      <c r="G55" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-1.000000000000004</v>
-      </c>
-      <c r="J55" t="n">
-        <v>17.20000000000002</v>
-      </c>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>31.26</v>
+        <v>31</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="N55" t="n">
-        <v>31.32666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2723,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="C56" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D56" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E56" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="F56" t="n">
-        <v>5686</v>
+        <v>25</v>
       </c>
       <c r="G56" t="n">
-        <v>31.44</v>
+        <v>9.999999999999988</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>17.20000000000002</v>
+        <v>31</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>31.26</v>
+        <v>31</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>31.28500000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>31.31333333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2766,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E57" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F57" t="n">
-        <v>3921.2472</v>
+        <v>5044.9689</v>
       </c>
       <c r="G57" t="n">
-        <v>31.44333333333333</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>17.20000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>31.26</v>
+        <v>31</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>31.28500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>31.32000000000001</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2809,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C58" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D58" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E58" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
-        <v>2598</v>
+        <v>21.7594</v>
       </c>
       <c r="G58" t="n">
-        <v>31.44666666666667</v>
+        <v>-8.196721311475379</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>17.20000000000002</v>
+        <v>31</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>31.26</v>
+        <v>31</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>31.28000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>31.30666666666668</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2852,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="C59" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D59" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E59" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="F59" t="n">
-        <v>5419.8518</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>31.45166666666666</v>
+        <v>-3.448275862068943</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>17.20000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>31.26</v>
+        <v>31</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>31.27500000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>31.29333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2895,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="D60" t="n">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="E60" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="F60" t="n">
-        <v>10992.0993</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>31.43</v>
+        <v>14.28571428571431</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>17.40000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K60" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L60" t="n">
-        <v>31.24</v>
+        <v>31</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>31.26500000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>31.27333333333334</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2938,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E61" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F61" t="n">
-        <v>107.6088</v>
+        <v>27509.7348</v>
       </c>
       <c r="G61" t="n">
-        <v>31.42166666666667</v>
+        <v>-17.39130434782607</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>17.50000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K61" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L61" t="n">
-        <v>31.21</v>
+        <v>31</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>31.24500000000002</v>
-      </c>
-      <c r="N61" t="n">
-        <v>31.27000000000001</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2981,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="C62" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="D62" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="E62" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="F62" t="n">
-        <v>14490.4838</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>31.4</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>17.50000000000002</v>
+        <v>31</v>
       </c>
       <c r="K62" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L62" t="n">
-        <v>31.18</v>
+        <v>31</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>31.22500000000002</v>
-      </c>
-      <c r="N62" t="n">
-        <v>31.24666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +3024,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="C63" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="D63" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="E63" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="F63" t="n">
-        <v>46.7419</v>
+        <v>12403.2513</v>
       </c>
       <c r="G63" t="n">
-        <v>31.37833333333333</v>
+        <v>-19.9999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>17.50000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K63" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L63" t="n">
-        <v>31.09999999999999</v>
+        <v>31</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>31.19500000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>31.25000000000001</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +3067,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="C64" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="D64" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="E64" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="F64" t="n">
-        <v>2263.0744</v>
+        <v>32</v>
       </c>
       <c r="G64" t="n">
-        <v>31.35666666666667</v>
+        <v>13.04347826086957</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>17.50000000000002</v>
+        <v>30.8</v>
       </c>
       <c r="K64" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>31.05999999999999</v>
+        <v>31</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>31.16500000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>31.22666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +3110,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="C65" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="D65" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="E65" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="F65" t="n">
-        <v>34714.3156</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n">
-        <v>31.32833333333333</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>17.60000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K65" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>31.01999999999999</v>
+        <v>31</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>31.14000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,50 +3153,42 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="C66" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="D66" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="E66" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="F66" t="n">
-        <v>64314.00162491</v>
+        <v>211</v>
       </c>
       <c r="G66" t="n">
-        <v>31.30333333333333</v>
+        <v>8.108108108108121</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>17.70000000000002</v>
+        <v>31.6</v>
       </c>
       <c r="K66" t="n">
-        <v>-60.00000000000056</v>
-      </c>
-      <c r="L66" t="n">
-        <v>30.98999999999999</v>
+        <v>31</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>31.12500000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>31.18666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>1</v>
+        <v>1.004677419354839</v>
       </c>
     </row>
     <row r="67">
@@ -3640,49 +3196,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="C67" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="D67" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="E67" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="F67" t="n">
-        <v>11.5666</v>
+        <v>5492.8031</v>
       </c>
       <c r="G67" t="n">
-        <v>31.27333333333333</v>
+        <v>-12.50000000000006</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-1.700000000000003</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>18.10000000000002</v>
+        <v>31.3</v>
       </c>
       <c r="K67" t="n">
-        <v>-77.77777777777813</v>
-      </c>
-      <c r="L67" t="n">
-        <v>30.91999999999999</v>
-      </c>
+        <v>31.3</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>31.09000000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>31.16333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +3235,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="C68" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="D68" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="E68" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="F68" t="n">
-        <v>293.3948</v>
+        <v>48</v>
       </c>
       <c r="G68" t="n">
-        <v>31.25166666666667</v>
+        <v>-9.090909090909101</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>18.50000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="K68" t="n">
-        <v>-23.07692307692324</v>
-      </c>
-      <c r="L68" t="n">
-        <v>30.88999999999999</v>
+        <v>31.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>31.07500000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +3278,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="D69" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="F69" t="n">
-        <v>4934.385</v>
+        <v>39</v>
       </c>
       <c r="G69" t="n">
-        <v>31.215</v>
+        <v>-9.090909090909101</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-2.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>19.40000000000001</v>
+        <v>31.3</v>
       </c>
       <c r="K69" t="n">
-        <v>-50.00000000000018</v>
-      </c>
-      <c r="L69" t="n">
-        <v>30.76999999999999</v>
+        <v>31.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>31.015</v>
-      </c>
-      <c r="N69" t="n">
-        <v>31.10666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +3321,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="C70" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="D70" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="E70" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="F70" t="n">
-        <v>278.7249</v>
+        <v>87</v>
       </c>
       <c r="G70" t="n">
-        <v>31.215</v>
+        <v>7.142857142857107</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>20.30000000000001</v>
+        <v>31.3</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>30.75999999999999</v>
-      </c>
+        <v>31.3</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>31</v>
-      </c>
-      <c r="N70" t="n">
-        <v>31.09666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +3360,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="C71" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="D71" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="E71" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="F71" t="n">
-        <v>265.6477</v>
+        <v>95</v>
       </c>
       <c r="G71" t="n">
-        <v>31.21333333333333</v>
+        <v>-13.04347826086957</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>20.40000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="K71" t="n">
-        <v>-3.448275862068907</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30.74999999999999</v>
+        <v>31.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>30.98</v>
-      </c>
-      <c r="N71" t="n">
-        <v>31.08</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3403,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="C72" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="D72" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="E72" t="n">
-        <v>30.5</v>
+        <v>31.3</v>
       </c>
       <c r="F72" t="n">
-        <v>254.8475</v>
+        <v>5465.0719</v>
       </c>
       <c r="G72" t="n">
-        <v>31.19333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.700000000000003</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>20.70000000000001</v>
+        <v>31.3</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>30.71</v>
+        <v>31.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>30.94499999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>31.05333333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +3446,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.9</v>
+        <v>31.3</v>
       </c>
       <c r="C73" t="n">
-        <v>29.6</v>
+        <v>31.5</v>
       </c>
       <c r="D73" t="n">
-        <v>29.9</v>
+        <v>31.5</v>
       </c>
       <c r="E73" t="n">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="F73" t="n">
-        <v>67642.1841</v>
+        <v>11942.6418</v>
       </c>
       <c r="G73" t="n">
-        <v>31.17</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-2.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>21.60000000000001</v>
+        <v>31.3</v>
       </c>
       <c r="K73" t="n">
-        <v>-31.70731707317076</v>
-      </c>
-      <c r="L73" t="n">
-        <v>30.58</v>
+        <v>31.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>30.83999999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>30.99000000000001</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3489,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="C74" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="D74" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="E74" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1178.1904</v>
       </c>
       <c r="G74" t="n">
-        <v>31.16833333333333</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>22.90000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="K74" t="n">
-        <v>1.886792452830153</v>
-      </c>
-      <c r="L74" t="n">
-        <v>30.58</v>
+        <v>31.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>30.81999999999999</v>
-      </c>
-      <c r="N74" t="n">
-        <v>30.97000000000001</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3532,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="C75" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="D75" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="E75" t="n">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="F75" t="n">
-        <v>11410.228</v>
+        <v>2010</v>
       </c>
       <c r="G75" t="n">
-        <v>31.15333333333333</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>22.90000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30.59</v>
+        <v>31.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>30.80499999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>30.95666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3575,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="C76" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="D76" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="E76" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="F76" t="n">
-        <v>273</v>
+        <v>3129</v>
       </c>
       <c r="G76" t="n">
-        <v>31.13166666666667</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-2.500000000000004</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>24.1</v>
+        <v>31.3</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.33333333333337</v>
-      </c>
-      <c r="L76" t="n">
-        <v>30.47</v>
+        <v>31.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>30.72999999999999</v>
-      </c>
-      <c r="N76" t="n">
-        <v>30.90666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3618,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="C77" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="D77" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="E77" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="F77" t="n">
-        <v>12269.7336</v>
+        <v>150.1587</v>
       </c>
       <c r="G77" t="n">
-        <v>31.11</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-2.500000000000004</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>24.1</v>
+        <v>31.2</v>
       </c>
       <c r="K77" t="n">
-        <v>-21.42857142857145</v>
-      </c>
-      <c r="L77" t="n">
-        <v>30.39</v>
+        <v>31.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>30.65499999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>30.85666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3661,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="C78" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="D78" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="E78" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="F78" t="n">
-        <v>6633.6033</v>
+        <v>2627</v>
       </c>
       <c r="G78" t="n">
-        <v>31.08833333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-2.500000000000004</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>24.1</v>
+        <v>31.2</v>
       </c>
       <c r="K78" t="n">
-        <v>-6.382978723404281</v>
-      </c>
-      <c r="L78" t="n">
-        <v>30.27</v>
+        <v>31.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>30.57999999999999</v>
-      </c>
-      <c r="N78" t="n">
-        <v>30.80666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3704,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="C79" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="D79" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="E79" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>5517</v>
       </c>
       <c r="G79" t="n">
-        <v>31.05833333333334</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.900000000000002</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>24.70000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="K79" t="n">
-        <v>-13.6363636363636</v>
-      </c>
-      <c r="L79" t="n">
-        <v>30.3</v>
+        <v>31.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>30.53499999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>30.77666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3747,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="C80" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="D80" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="E80" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="F80" t="n">
-        <v>36.1818</v>
+        <v>5836</v>
       </c>
       <c r="G80" t="n">
-        <v>31.03333333333334</v>
+        <v>-20</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.900000000000002</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>24.70000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.62790697674419</v>
-      </c>
-      <c r="L80" t="n">
-        <v>30.24</v>
+        <v>31.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>30.49999999999998</v>
-      </c>
-      <c r="N80" t="n">
-        <v>30.74666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,49 +3790,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.2</v>
+        <v>31.2</v>
       </c>
       <c r="C81" t="n">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="D81" t="n">
-        <v>30.2</v>
+        <v>31.2</v>
       </c>
       <c r="E81" t="n">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="F81" t="n">
-        <v>34.3792</v>
+        <v>5255</v>
       </c>
       <c r="G81" t="n">
-        <v>31.02</v>
+        <v>-20</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.100000000000001</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>24.90000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.523809523809499</v>
-      </c>
-      <c r="L81" t="n">
-        <v>30.17000000000001</v>
+        <v>31.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>30.45999999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>30.71</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3833,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="C82" t="n">
-        <v>29.3</v>
+        <v>31.2</v>
       </c>
       <c r="D82" t="n">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="E82" t="n">
-        <v>29.3</v>
+        <v>31.2</v>
       </c>
       <c r="F82" t="n">
-        <v>56840.8972</v>
+        <v>2890</v>
       </c>
       <c r="G82" t="n">
-        <v>30.97833333333334</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.900000000000002</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>25.70000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.317073170731729</v>
-      </c>
-      <c r="L82" t="n">
-        <v>30.05</v>
+        <v>31.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>30.37999999999998</v>
-      </c>
-      <c r="N82" t="n">
-        <v>30.64666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3876,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="C83" t="n">
-        <v>30.4</v>
+        <v>31.7</v>
       </c>
       <c r="D83" t="n">
-        <v>30.4</v>
+        <v>31.7</v>
       </c>
       <c r="E83" t="n">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="G83" t="n">
-        <v>30.96833333333334</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>26.8</v>
+        <v>31.2</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L83" t="n">
-        <v>30.13</v>
+        <v>31.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>30.35499999999998</v>
-      </c>
-      <c r="N83" t="n">
-        <v>30.60333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,50 +3919,42 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="C84" t="n">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="D84" t="n">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="E84" t="n">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>1909</v>
       </c>
       <c r="G84" t="n">
-        <v>30.93</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>27.8</v>
+        <v>31.7</v>
       </c>
       <c r="K84" t="n">
-        <v>-30.61224489795919</v>
-      </c>
-      <c r="L84" t="n">
-        <v>29.98</v>
+        <v>31.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>30.27999999999998</v>
-      </c>
-      <c r="N84" t="n">
-        <v>30.54</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="85">
@@ -4558,49 +3962,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.4</v>
+        <v>31.7</v>
       </c>
       <c r="C85" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="D85" t="n">
-        <v>30.4</v>
+        <v>31.7</v>
       </c>
       <c r="E85" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>46000.6124</v>
       </c>
       <c r="G85" t="n">
-        <v>30.92000000000001</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>28.8</v>
+        <v>31.3</v>
       </c>
       <c r="K85" t="n">
-        <v>14.89361702127658</v>
-      </c>
-      <c r="L85" t="n">
-        <v>29.93</v>
+        <v>31.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>30.25999999999998</v>
-      </c>
-      <c r="N85" t="n">
-        <v>30.51333333333332</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +4005,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="C86" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="E86" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="F86" t="n">
-        <v>22</v>
+        <v>5686</v>
       </c>
       <c r="G86" t="n">
-        <v>30.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.263157894736855</v>
-      </c>
-      <c r="L86" t="n">
-        <v>29.9</v>
+        <v>31.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>30.18499999999998</v>
-      </c>
-      <c r="N86" t="n">
-        <v>30.45333333333332</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +4048,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="C87" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="D87" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="E87" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="F87" t="n">
-        <v>41.8897</v>
+        <v>3921.2472</v>
       </c>
       <c r="G87" t="n">
-        <v>30.85666666666668</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.263157894736855</v>
-      </c>
-      <c r="L87" t="n">
-        <v>29.87</v>
+        <v>31.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>30.12999999999998</v>
-      </c>
-      <c r="N87" t="n">
-        <v>30.39333333333332</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +4091,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="C88" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="D88" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="E88" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>2598</v>
       </c>
       <c r="G88" t="n">
-        <v>30.83666666666668</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>30.8</v>
+        <v>31.2</v>
       </c>
       <c r="K88" t="n">
-        <v>1.639344262295048</v>
-      </c>
-      <c r="L88" t="n">
-        <v>29.94</v>
+        <v>31.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>30.10499999999998</v>
-      </c>
-      <c r="N88" t="n">
-        <v>30.36666666666665</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +4134,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="C89" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="D89" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="E89" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="F89" t="n">
-        <v>11505.6783</v>
+        <v>5419.8518</v>
       </c>
       <c r="G89" t="n">
-        <v>30.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="K89" t="n">
-        <v>-12.6760563380282</v>
-      </c>
-      <c r="L89" t="n">
-        <v>29.84999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>30.07499999999998</v>
-      </c>
-      <c r="N89" t="n">
-        <v>30.30666666666665</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +4177,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.4</v>
+        <v>31.1</v>
       </c>
       <c r="C90" t="n">
-        <v>29.4</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
-        <v>29.4</v>
+        <v>31.1</v>
       </c>
       <c r="E90" t="n">
-        <v>29.4</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>1535.4029</v>
+        <v>10992.0993</v>
       </c>
       <c r="G90" t="n">
-        <v>30.76333333333335</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="K90" t="n">
-        <v>-10.14492753623193</v>
-      </c>
-      <c r="L90" t="n">
-        <v>29.75999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>29.99999999999998</v>
-      </c>
-      <c r="N90" t="n">
-        <v>30.25333333333332</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,49 +4220,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C91" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="D91" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="E91" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>107.6088</v>
       </c>
       <c r="G91" t="n">
-        <v>30.74833333333335</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.100000000000001</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>32.50000000000001</v>
+        <v>31</v>
       </c>
       <c r="K91" t="n">
-        <v>11.76470588235295</v>
-      </c>
-      <c r="L91" t="n">
-        <v>29.75999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>29.96499999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>30.22666666666665</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +4263,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="C92" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="D92" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="E92" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>14490.4838</v>
       </c>
       <c r="G92" t="n">
-        <v>30.71166666666669</v>
+        <v>-100.0000000000004</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>33.20000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.62499999999999</v>
-      </c>
-      <c r="L92" t="n">
-        <v>29.76999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>29.90999999999999</v>
-      </c>
-      <c r="N92" t="n">
-        <v>30.17666666666665</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,49 +4306,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="C93" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="D93" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="E93" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2143</v>
+        <v>46.7419</v>
       </c>
       <c r="G93" t="n">
-        <v>30.69666666666669</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-2.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>33.70000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="K93" t="n">
-        <v>8.474576271186432</v>
-      </c>
-      <c r="L93" t="n">
-        <v>29.71999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>29.92499999999998</v>
-      </c>
-      <c r="N93" t="n">
-        <v>30.14333333333332</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,49 +4349,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="C94" t="n">
-        <v>30</v>
+        <v>30.9</v>
       </c>
       <c r="D94" t="n">
-        <v>30</v>
+        <v>30.9</v>
       </c>
       <c r="E94" t="n">
-        <v>29.3</v>
+        <v>30.9</v>
       </c>
       <c r="F94" t="n">
-        <v>13888.9693</v>
+        <v>2263.0744</v>
       </c>
       <c r="G94" t="n">
-        <v>30.67000000000002</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>33.80000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.99999999999996</v>
-      </c>
-      <c r="L94" t="n">
-        <v>29.77999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>29.87999999999998</v>
-      </c>
-      <c r="N94" t="n">
-        <v>30.11333333333332</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,49 +4392,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.9</v>
+        <v>30.8</v>
       </c>
       <c r="C95" t="n">
-        <v>29.9</v>
+        <v>30.8</v>
       </c>
       <c r="D95" t="n">
-        <v>29.9</v>
+        <v>30.8</v>
       </c>
       <c r="E95" t="n">
-        <v>29.9</v>
+        <v>30.8</v>
       </c>
       <c r="F95" t="n">
-        <v>85.2106</v>
+        <v>34714.3156</v>
       </c>
       <c r="G95" t="n">
-        <v>30.64166666666669</v>
+        <v>-100</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-2.300000000000004</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>33.90000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="K95" t="n">
-        <v>12.19512195121949</v>
-      </c>
-      <c r="L95" t="n">
-        <v>29.72999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>29.82999999999998</v>
-      </c>
-      <c r="N95" t="n">
-        <v>30.08333333333332</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,50 +4435,42 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.4</v>
+        <v>30.8</v>
       </c>
       <c r="C96" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="D96" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="E96" t="n">
-        <v>29.4</v>
+        <v>30.8</v>
       </c>
       <c r="F96" t="n">
-        <v>102.7451</v>
+        <v>64314.00162491</v>
       </c>
       <c r="G96" t="n">
-        <v>30.61000000000003</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.800000000000004</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>34.40000000000001</v>
+        <v>30.8</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>29.72999999999999</v>
+        <v>31.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>29.81499999999998</v>
-      </c>
-      <c r="N96" t="n">
-        <v>30.03333333333332</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
-        <v>1</v>
+        <v>0.9853846153846153</v>
       </c>
     </row>
     <row r="97">
@@ -5170,49 +4478,854 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11.5666</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-77.77777777777844</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>293.3948</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-23.07692307692331</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>30</v>
+      </c>
+      <c r="D99" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>30</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4934.385</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-50.00000000000018</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K99" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>278.7249</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>30</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>265.6477</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-3.448275862068911</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K101" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>254.8475</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-12.50000000000003</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>29.9</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C103" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D103" t="n">
         <v>29.9</v>
       </c>
-      <c r="D97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="E103" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>67642.1841</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-31.70731707317082</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F104" t="n">
         <v>10</v>
       </c>
-      <c r="G97" t="n">
-        <v>30.58833333333336</v>
-      </c>
-      <c r="H97" t="n">
+      <c r="G104" t="n">
+        <v>1.886792452830157</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11410.228</v>
+      </c>
+      <c r="G105" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>-2.300000000000004</v>
-      </c>
-      <c r="J97" t="n">
-        <v>34.90000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-12.19512195121949</v>
-      </c>
-      <c r="L97" t="n">
-        <v>29.77999999999999</v>
-      </c>
-      <c r="M97" t="n">
-        <v>29.82499999999998</v>
-      </c>
-      <c r="N97" t="n">
-        <v>30.01333333333332</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>273</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-13.33333333333339</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K106" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12269.7336</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-21.42857142857149</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K107" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6633.6033</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-6.382978723404295</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K108" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-13.63636363636363</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K109" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>36.1818</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-11.62790697674421</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K110" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0.9755825242718448</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>34.3792</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-9.523809523809517</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>56840.8972</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-7.317073170731748</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-12.82051282051287</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-30.61224489795928</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>14.89361702127662</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K115" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>30</v>
+      </c>
+      <c r="C116" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>30</v>
+      </c>
+      <c r="E116" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>22</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-5.263157894736866</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K116" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="C2" t="n">
-        <v>32.7</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>32.7</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>32.7</v>
+        <v>32.2</v>
       </c>
       <c r="F2" t="n">
-        <v>200</v>
+        <v>91646.93240000001</v>
       </c>
       <c r="G2" t="n">
-        <v>134724.47534286</v>
+        <v>226378.6397</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.6</v>
+        <v>35.1</v>
       </c>
       <c r="C3" t="n">
-        <v>32.6</v>
+        <v>34.8</v>
       </c>
       <c r="D3" t="n">
-        <v>32.6</v>
+        <v>35.1</v>
       </c>
       <c r="E3" t="n">
-        <v>32.6</v>
+        <v>33.6</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>25840.86235714</v>
       </c>
       <c r="G3" t="n">
-        <v>134524.47534286</v>
+        <v>200537.77734286</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8</v>
+        <v>34.8</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6</v>
+        <v>34.7</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8</v>
+        <v>34.8</v>
       </c>
       <c r="E4" t="n">
-        <v>31.6</v>
+        <v>33.6</v>
       </c>
       <c r="F4" t="n">
-        <v>6906.1082</v>
+        <v>195</v>
       </c>
       <c r="G4" t="n">
-        <v>127618.36714286</v>
+        <v>200342.77734286</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.6</v>
+        <v>34.7</v>
       </c>
       <c r="C5" t="n">
-        <v>32.6</v>
+        <v>34.7</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6</v>
+        <v>34.7</v>
       </c>
       <c r="E5" t="n">
-        <v>32.6</v>
+        <v>34.7</v>
       </c>
       <c r="F5" t="n">
-        <v>95.7975</v>
+        <v>683.8275</v>
       </c>
       <c r="G5" t="n">
-        <v>127714.16464286</v>
+        <v>200342.77734286</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>33.6</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4</v>
+        <v>33.3</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>34.1</v>
       </c>
       <c r="E6" t="n">
-        <v>31.4</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>18816.1064</v>
+        <v>27175.6951</v>
       </c>
       <c r="G6" t="n">
-        <v>108898.05824286</v>
+        <v>173167.08224286</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.4</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>32.4</v>
+        <v>34.6</v>
       </c>
       <c r="E7" t="n">
-        <v>32.4</v>
+        <v>33.9</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>43425.1122</v>
       </c>
       <c r="G7" t="n">
-        <v>108918.05824286</v>
+        <v>216592.19444286</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="F8" t="n">
-        <v>10.25</v>
+        <v>169646.9692</v>
       </c>
       <c r="G8" t="n">
-        <v>108907.80824286</v>
+        <v>46945.22524286</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="C9" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E9" t="n">
         <v>32.2</v>
       </c>
-      <c r="D9" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32</v>
-      </c>
       <c r="F9" t="n">
-        <v>783.5925</v>
+        <v>31001.1126</v>
       </c>
       <c r="G9" t="n">
-        <v>109691.40074286</v>
+        <v>15944.11264286</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.2</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>32.2</v>
+        <v>32.8</v>
       </c>
       <c r="D10" t="n">
-        <v>32.2</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>32.2</v>
       </c>
       <c r="F10" t="n">
-        <v>11805.1599</v>
+        <v>70051.1346</v>
       </c>
       <c r="G10" t="n">
-        <v>109691.40074286</v>
+        <v>85995.24724286</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="E11" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>6297.2171</v>
+        <v>104602.2152</v>
       </c>
       <c r="G11" t="n">
-        <v>115988.61784286</v>
+        <v>-18606.96795714</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -807,19 +807,19 @@
         <v>32.4</v>
       </c>
       <c r="E12" t="n">
-        <v>31.4</v>
+        <v>32.3</v>
       </c>
       <c r="F12" t="n">
-        <v>32906.2473</v>
+        <v>359.3395</v>
       </c>
       <c r="G12" t="n">
-        <v>115988.61784286</v>
+        <v>-18966.30745714</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.5</v>
+        <v>32.3</v>
       </c>
       <c r="C13" t="n">
-        <v>30.8</v>
+        <v>32.5</v>
       </c>
       <c r="D13" t="n">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="E13" t="n">
-        <v>30.8</v>
+        <v>32.3</v>
       </c>
       <c r="F13" t="n">
-        <v>42758.632</v>
+        <v>107.9411</v>
       </c>
       <c r="G13" t="n">
-        <v>73229.98584285997</v>
+        <v>-18858.36635714</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="C14" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="D14" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="E14" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>73279.98584285997</v>
+        <v>-18868.36635714</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -909,25 +909,25 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="D15" t="n">
         <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1857.8402</v>
+        <v>37415.3612</v>
       </c>
       <c r="G15" t="n">
-        <v>71422.14564285996</v>
+        <v>-56283.72755714</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31.2</v>
       </c>
       <c r="F16" t="n">
-        <v>25266.3785</v>
+        <v>210</v>
       </c>
       <c r="G16" t="n">
-        <v>71422.14564285996</v>
+        <v>-56073.72755714</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="F17" t="n">
-        <v>5363.7351</v>
+        <v>1434.4514</v>
       </c>
       <c r="G17" t="n">
-        <v>71422.14564285996</v>
+        <v>-57508.17895714</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>31.8</v>
+        <v>31.4</v>
       </c>
       <c r="C18" t="n">
-        <v>31.8</v>
+        <v>31.4</v>
       </c>
       <c r="D18" t="n">
-        <v>31.8</v>
+        <v>31.4</v>
       </c>
       <c r="E18" t="n">
-        <v>31.8</v>
+        <v>31.4</v>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>71369.14564285996</v>
+        <v>-57518.17895714</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>39937.5566</v>
       </c>
       <c r="G19" t="n">
-        <v>71379.14564285996</v>
+        <v>-97455.73555714</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C20" t="n">
         <v>31.1</v>
       </c>
-      <c r="C20" t="n">
-        <v>32</v>
-      </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>31.2</v>
       </c>
       <c r="E20" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n">
-        <v>12517.9099</v>
+        <v>25373.1678</v>
       </c>
       <c r="G20" t="n">
-        <v>71379.14564285996</v>
+        <v>-72082.56775714</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>31.9</v>
+        <v>31.1</v>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E21" t="n">
-        <v>31.9</v>
+        <v>31.1</v>
       </c>
       <c r="F21" t="n">
-        <v>110</v>
+        <v>5875.311</v>
       </c>
       <c r="G21" t="n">
-        <v>71379.14564285996</v>
+        <v>-66207.25675714</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F22" t="n">
-        <v>159.6002</v>
+        <v>11407.3883</v>
       </c>
       <c r="G22" t="n">
-        <v>71379.14564285996</v>
+        <v>-66207.25675714</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C23" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F23" t="n">
-        <v>2.5768</v>
+        <v>187269.0136</v>
       </c>
       <c r="G23" t="n">
-        <v>71376.56884285997</v>
+        <v>121061.75684286</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="C24" t="n">
-        <v>31.8</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
-        <v>31.8</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="F24" t="n">
-        <v>111</v>
+        <v>24072.4241</v>
       </c>
       <c r="G24" t="n">
-        <v>71265.56884285997</v>
+        <v>145134.18094286</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.8</v>
+        <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>31.8</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>31.8</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>31.8</v>
+        <v>32.9</v>
       </c>
       <c r="F25" t="n">
-        <v>43.5048</v>
+        <v>2647.5757</v>
       </c>
       <c r="G25" t="n">
-        <v>71265.56884285997</v>
+        <v>145134.18094286</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>31.9</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>31.8</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>31.9</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
-        <v>31.8</v>
+        <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>19831.3204</v>
+        <v>47.8212</v>
       </c>
       <c r="G26" t="n">
-        <v>71265.56884285997</v>
+        <v>145134.18094286</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31</v>
+        <v>32.9</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>32.9</v>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>32.9</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>32.9</v>
       </c>
       <c r="F27" t="n">
-        <v>40530.6172</v>
+        <v>4292</v>
       </c>
       <c r="G27" t="n">
-        <v>30734.95164285997</v>
+        <v>140842.18094286</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>32.6</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>32.6</v>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>32.6</v>
       </c>
       <c r="E28" t="n">
-        <v>30.8</v>
+        <v>32.6</v>
       </c>
       <c r="F28" t="n">
-        <v>38725.8486</v>
+        <v>4978.8036</v>
       </c>
       <c r="G28" t="n">
-        <v>30734.95164285997</v>
+        <v>135863.37734286</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.9</v>
+        <v>32.9</v>
       </c>
       <c r="C29" t="n">
-        <v>30.9</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>30.9</v>
+        <v>32.9</v>
       </c>
       <c r="E29" t="n">
-        <v>30.9</v>
+        <v>32.5</v>
       </c>
       <c r="F29" t="n">
-        <v>9409.6096</v>
+        <v>948.902</v>
       </c>
       <c r="G29" t="n">
-        <v>21325.34204285997</v>
+        <v>134914.47534286</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>32.1</v>
+        <v>32.8</v>
       </c>
       <c r="C30" t="n">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="D30" t="n">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="E30" t="n">
-        <v>32.1</v>
+        <v>32.8</v>
       </c>
       <c r="F30" t="n">
-        <v>79914.15640000001</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>101239.49844286</v>
+        <v>134924.47534286</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32.3</v>
+        <v>32.7</v>
       </c>
       <c r="C31" t="n">
-        <v>31.4</v>
+        <v>32.7</v>
       </c>
       <c r="D31" t="n">
-        <v>32.3</v>
+        <v>32.7</v>
       </c>
       <c r="E31" t="n">
-        <v>31.4</v>
+        <v>32.7</v>
       </c>
       <c r="F31" t="n">
-        <v>17447.9721</v>
+        <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>83791.52634285997</v>
+        <v>134724.47534286</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="C32" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="D32" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="E32" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="F32" t="n">
-        <v>12138.7506</v>
+        <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>95930.27694285997</v>
+        <v>134524.47534286</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="C33" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="D33" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="E33" t="n">
-        <v>32.2</v>
+        <v>31.6</v>
       </c>
       <c r="F33" t="n">
-        <v>2394</v>
+        <v>6906.1082</v>
       </c>
       <c r="G33" t="n">
-        <v>95930.27694285997</v>
+        <v>127618.36714286</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="C34" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="D34" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="E34" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="F34" t="n">
-        <v>11336.5217</v>
+        <v>95.7975</v>
       </c>
       <c r="G34" t="n">
-        <v>95930.27694285997</v>
+        <v>127714.16464286</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>31.4</v>
       </c>
       <c r="D35" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
-        <v>32.4</v>
+        <v>31.4</v>
       </c>
       <c r="F35" t="n">
-        <v>410</v>
+        <v>18816.1064</v>
       </c>
       <c r="G35" t="n">
-        <v>96340.27694285997</v>
+        <v>108898.05824286</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1674,16 +1674,16 @@
         <v>32.4</v>
       </c>
       <c r="F36" t="n">
-        <v>74.7762</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>96265.50074285998</v>
+        <v>108918.05824286</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="C37" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="E37" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>30</v>
+        <v>10.25</v>
       </c>
       <c r="G37" t="n">
-        <v>96235.50074285998</v>
+        <v>108907.80824286</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C38" t="n">
         <v>32.2</v>
@@ -1743,13 +1743,13 @@
         <v>32.2</v>
       </c>
       <c r="E38" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>69.649</v>
+        <v>783.5925</v>
       </c>
       <c r="G38" t="n">
-        <v>96165.85174285997</v>
+        <v>109691.40074286</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>32.2</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>11805.1599</v>
       </c>
       <c r="G39" t="n">
-        <v>96165.85174285997</v>
+        <v>109691.40074286</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.1</v>
+        <v>32.4</v>
       </c>
       <c r="C40" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="D40" t="n">
-        <v>31.1</v>
+        <v>32.4</v>
       </c>
       <c r="E40" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="F40" t="n">
-        <v>22227.0651</v>
+        <v>6297.2171</v>
       </c>
       <c r="G40" t="n">
-        <v>73938.78664285998</v>
+        <v>115988.61784286</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="C41" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="D41" t="n">
-        <v>30.9</v>
+        <v>32.4</v>
       </c>
       <c r="E41" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="F41" t="n">
-        <v>6475.9302</v>
+        <v>32906.2473</v>
       </c>
       <c r="G41" t="n">
-        <v>73938.78664285998</v>
+        <v>115988.61784286</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="C42" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="D42" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="E42" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="F42" t="n">
-        <v>78.70659999999999</v>
+        <v>42758.632</v>
       </c>
       <c r="G42" t="n">
-        <v>74017.49324285999</v>
+        <v>73229.98584285997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,35 +1914,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="D43" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="E43" t="n">
-        <v>31</v>
+        <v>32.1</v>
       </c>
       <c r="F43" t="n">
-        <v>14477.7553</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>59539.73794285998</v>
+        <v>73279.98584285997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>31.7</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1954,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>11218.5314</v>
+        <v>1857.8402</v>
       </c>
       <c r="G44" t="n">
-        <v>59539.73794285998</v>
+        <v>71422.14564285996</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>31</v>
-      </c>
-      <c r="K44" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1998,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C45" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E45" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>25266.3785</v>
       </c>
       <c r="G45" t="n">
-        <v>59569.73794285998</v>
+        <v>71422.14564285996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>31</v>
-      </c>
-      <c r="K45" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2045,25 +2025,25 @@
         <v>31</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" t="n">
         <v>31</v>
       </c>
       <c r="F46" t="n">
-        <v>6459.7404</v>
+        <v>5363.7351</v>
       </c>
       <c r="G46" t="n">
-        <v>53109.99754285998</v>
+        <v>71422.14564285996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2078,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="D47" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="F47" t="n">
-        <v>4355.9479</v>
+        <v>53</v>
       </c>
       <c r="G47" t="n">
-        <v>53109.99754285998</v>
+        <v>71369.14564285996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2114,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>13016.5853</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>53109.99754285998</v>
+        <v>71379.14564285996</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2150,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="C49" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E49" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="F49" t="n">
-        <v>2155.75839439</v>
+        <v>12517.9099</v>
       </c>
       <c r="G49" t="n">
-        <v>55265.75593724998</v>
+        <v>71379.14564285996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2186,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C50" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
+        <v>32</v>
+      </c>
+      <c r="E50" t="n">
         <v>31.9</v>
       </c>
-      <c r="E50" t="n">
-        <v>30.9</v>
-      </c>
       <c r="F50" t="n">
-        <v>6492.991</v>
+        <v>110</v>
       </c>
       <c r="G50" t="n">
-        <v>48772.76493724998</v>
+        <v>71379.14564285996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2222,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="C51" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="E51" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>465.8416</v>
+        <v>159.6002</v>
       </c>
       <c r="G51" t="n">
-        <v>48306.92333724998</v>
+        <v>71379.14564285996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2258,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C52" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D52" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E52" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>2.5768</v>
       </c>
       <c r="G52" t="n">
-        <v>48316.92333724998</v>
+        <v>71376.56884285997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2294,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="C53" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="D53" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="E53" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="F53" t="n">
-        <v>20000</v>
+        <v>111</v>
       </c>
       <c r="G53" t="n">
-        <v>28316.92333724998</v>
+        <v>71265.56884285997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2330,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C54" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D54" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E54" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>43.5048</v>
       </c>
       <c r="G54" t="n">
-        <v>28326.92333724998</v>
+        <v>71265.56884285997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2366,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.1</v>
+        <v>31.9</v>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="D55" t="n">
-        <v>31.1</v>
+        <v>31.9</v>
       </c>
       <c r="E55" t="n">
-        <v>31</v>
+        <v>31.8</v>
       </c>
       <c r="F55" t="n">
-        <v>5217.5208</v>
+        <v>19831.3204</v>
       </c>
       <c r="G55" t="n">
-        <v>23109.40253724998</v>
+        <v>71265.56884285997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="E56" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="F56" t="n">
-        <v>25</v>
+        <v>40530.6172</v>
       </c>
       <c r="G56" t="n">
-        <v>23134.40253724998</v>
+        <v>30734.95164285997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2447,13 +2427,13 @@
         <v>31</v>
       </c>
       <c r="E57" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="F57" t="n">
-        <v>5044.9689</v>
+        <v>38725.8486</v>
       </c>
       <c r="G57" t="n">
-        <v>18089.43363724998</v>
+        <v>30734.95164285997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2474,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="C58" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="D58" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="E58" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="F58" t="n">
-        <v>21.7594</v>
+        <v>9409.6096</v>
       </c>
       <c r="G58" t="n">
-        <v>18111.19303724998</v>
+        <v>21325.34204285997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2510,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="C59" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="D59" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="E59" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>79914.15640000001</v>
       </c>
       <c r="G59" t="n">
-        <v>18111.19303724998</v>
+        <v>101239.49844286</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2546,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="C60" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="D60" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="E60" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>17447.9721</v>
       </c>
       <c r="G60" t="n">
-        <v>18111.19303724998</v>
+        <v>83791.52634285997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2582,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>31</v>
+        <v>32.2</v>
       </c>
       <c r="C61" t="n">
-        <v>31</v>
+        <v>32.2</v>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>32.2</v>
       </c>
       <c r="E61" t="n">
-        <v>31</v>
+        <v>32.2</v>
       </c>
       <c r="F61" t="n">
-        <v>27509.7348</v>
+        <v>12138.7506</v>
       </c>
       <c r="G61" t="n">
-        <v>-9398.541762750017</v>
+        <v>95930.27694285997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2618,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="C62" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="D62" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="E62" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>2394</v>
       </c>
       <c r="G62" t="n">
-        <v>-9373.541762750017</v>
+        <v>95930.27694285997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2654,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="C63" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="D63" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="E63" t="n">
-        <v>30.8</v>
+        <v>32.2</v>
       </c>
       <c r="F63" t="n">
-        <v>12403.2513</v>
+        <v>11336.5217</v>
       </c>
       <c r="G63" t="n">
-        <v>-21776.79306275002</v>
+        <v>95930.27694285997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2690,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="C64" t="n">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="D64" t="n">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="E64" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="F64" t="n">
-        <v>32</v>
+        <v>410</v>
       </c>
       <c r="G64" t="n">
-        <v>-21744.79306275002</v>
+        <v>96340.27694285997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="C65" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="D65" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="E65" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="F65" t="n">
-        <v>30</v>
+        <v>74.7762</v>
       </c>
       <c r="G65" t="n">
-        <v>-21744.79306275002</v>
+        <v>96265.50074285998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2762,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="C66" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="D66" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="E66" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="F66" t="n">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="G66" t="n">
-        <v>-21955.79306275002</v>
+        <v>96235.50074285998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2798,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>31.2</v>
+        <v>32.2</v>
       </c>
       <c r="C67" t="n">
-        <v>31.2</v>
+        <v>32.2</v>
       </c>
       <c r="D67" t="n">
-        <v>31.2</v>
+        <v>32.2</v>
       </c>
       <c r="E67" t="n">
-        <v>31.2</v>
+        <v>32.2</v>
       </c>
       <c r="F67" t="n">
-        <v>5492.8031</v>
+        <v>69.649</v>
       </c>
       <c r="G67" t="n">
-        <v>-27448.59616275002</v>
+        <v>96165.85174285997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2834,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="C68" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="D68" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="E68" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="F68" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>-27400.59616275002</v>
+        <v>96165.85174285997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2870,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="C69" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="D69" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="E69" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="F69" t="n">
-        <v>39</v>
+        <v>22227.0651</v>
       </c>
       <c r="G69" t="n">
-        <v>-27400.59616275002</v>
+        <v>73938.78664285998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2906,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="C70" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="D70" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="E70" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F70" t="n">
-        <v>87</v>
+        <v>6475.9302</v>
       </c>
       <c r="G70" t="n">
-        <v>-27487.59616275002</v>
+        <v>73938.78664285998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2942,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="C71" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="D71" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="E71" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F71" t="n">
-        <v>95</v>
+        <v>78.70659999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-27392.59616275002</v>
+        <v>74017.49324285999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2978,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C72" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="D72" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="E72" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F72" t="n">
-        <v>5465.0719</v>
+        <v>14477.7553</v>
       </c>
       <c r="G72" t="n">
-        <v>-27392.59616275002</v>
+        <v>59539.73794285998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3014,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C73" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="E73" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F73" t="n">
-        <v>11942.6418</v>
+        <v>11218.5314</v>
       </c>
       <c r="G73" t="n">
-        <v>-15449.95436275002</v>
+        <v>59539.73794285998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3050,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="C74" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="D74" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="E74" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="F74" t="n">
-        <v>1178.1904</v>
+        <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>-15449.95436275002</v>
+        <v>59569.73794285998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3086,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C75" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="E75" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F75" t="n">
-        <v>2010</v>
+        <v>6459.7404</v>
       </c>
       <c r="G75" t="n">
-        <v>-17459.95436275002</v>
+        <v>53109.99754285998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3122,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C76" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="E76" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F76" t="n">
-        <v>3129</v>
+        <v>4355.9479</v>
       </c>
       <c r="G76" t="n">
-        <v>-20588.95436275002</v>
+        <v>53109.99754285998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="C77" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E77" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F77" t="n">
-        <v>150.1587</v>
+        <v>13016.5853</v>
       </c>
       <c r="G77" t="n">
-        <v>-20588.95436275002</v>
+        <v>53109.99754285998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3194,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="C78" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="D78" t="n">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="E78" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="F78" t="n">
-        <v>2627</v>
+        <v>2155.75839439</v>
       </c>
       <c r="G78" t="n">
-        <v>-20588.95436275002</v>
+        <v>55265.75593724998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3230,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="C79" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="D79" t="n">
-        <v>31.2</v>
+        <v>31.9</v>
       </c>
       <c r="E79" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F79" t="n">
-        <v>5517</v>
+        <v>6492.991</v>
       </c>
       <c r="G79" t="n">
-        <v>-20588.95436275002</v>
+        <v>48772.76493724998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3266,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="C80" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="D80" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="E80" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F80" t="n">
-        <v>5836</v>
+        <v>465.8416</v>
       </c>
       <c r="G80" t="n">
-        <v>-20588.95436275002</v>
+        <v>48306.92333724998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3302,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="C81" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="D81" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="E81" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="F81" t="n">
-        <v>5255</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-20588.95436275002</v>
+        <v>48316.92333724998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C82" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D82" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E82" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F82" t="n">
-        <v>2890</v>
+        <v>20000</v>
       </c>
       <c r="G82" t="n">
-        <v>-20588.95436275002</v>
+        <v>28316.92333724998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3374,7 +3354,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="C83" t="n">
         <v>31.7</v>
@@ -3383,13 +3363,13 @@
         <v>31.7</v>
       </c>
       <c r="E83" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F83" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-20378.95436275002</v>
+        <v>28326.92333724998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3410,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="C84" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="E84" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
-        <v>1909</v>
+        <v>5217.5208</v>
       </c>
       <c r="G84" t="n">
-        <v>-22287.95436275002</v>
+        <v>23109.40253724998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3446,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C85" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D85" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E85" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="F85" t="n">
-        <v>46000.6124</v>
+        <v>25</v>
       </c>
       <c r="G85" t="n">
-        <v>-68288.56676275001</v>
+        <v>23134.40253724998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3482,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E86" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F86" t="n">
-        <v>5686</v>
+        <v>5044.9689</v>
       </c>
       <c r="G86" t="n">
-        <v>-68288.56676275001</v>
+        <v>18089.43363724998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3518,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C87" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D87" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E87" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F87" t="n">
-        <v>3921.2472</v>
+        <v>21.7594</v>
       </c>
       <c r="G87" t="n">
-        <v>-68288.56676275001</v>
+        <v>18111.19303724998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3554,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="C88" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D88" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E88" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="F88" t="n">
-        <v>2598</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-68288.56676275001</v>
+        <v>18111.19303724998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="C89" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D89" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E89" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="F89" t="n">
-        <v>5419.8518</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-68288.56676275001</v>
+        <v>18111.19303724998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3626,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C90" t="n">
         <v>31</v>
       </c>
       <c r="D90" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
         <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>10992.0993</v>
+        <v>27509.7348</v>
       </c>
       <c r="G90" t="n">
-        <v>-79280.66606275001</v>
+        <v>-9398.541762750017</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3662,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="C91" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="D91" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="E91" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="F91" t="n">
-        <v>107.6088</v>
+        <v>25</v>
       </c>
       <c r="G91" t="n">
-        <v>-79388.27486275001</v>
+        <v>-9373.541762750017</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3698,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="C92" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="D92" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="E92" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="F92" t="n">
-        <v>14490.4838</v>
+        <v>12403.2513</v>
       </c>
       <c r="G92" t="n">
-        <v>-79388.27486275001</v>
+        <v>-21776.79306275002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3734,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="C93" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="D93" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="E93" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="F93" t="n">
-        <v>46.7419</v>
+        <v>32</v>
       </c>
       <c r="G93" t="n">
-        <v>-79388.27486275001</v>
+        <v>-21744.79306275002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3770,35 +3750,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="C94" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="D94" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="E94" t="n">
-        <v>30.9</v>
+        <v>31.6</v>
       </c>
       <c r="F94" t="n">
-        <v>2263.0744</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>-79388.27486275001</v>
+        <v>-21744.79306275002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="K94" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3810,954 +3786,1906 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>211</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-21955.79306275002</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5492.8031</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-27448.59616275002</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>48</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-27400.59616275002</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>39</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-27400.59616275002</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>87</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-27487.59616275002</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>95</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-27392.59616275002</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5465.0719</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-27392.59616275002</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11942.6418</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-15449.95436275002</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1178.1904</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-15449.95436275002</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-17459.95436275002</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3129</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>150.1587</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2627</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5517</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5836</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5255</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2890</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-20588.95436275002</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>210</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-20378.95436275002</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1909</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-22287.95436275002</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>46000.6124</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-68288.56676275001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5686</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-68288.56676275001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3921.2472</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-68288.56676275001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2598</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-68288.56676275001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5419.8518</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-68288.56676275001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>31</v>
+      </c>
+      <c r="D119" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>31</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10992.0993</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-79280.66606275001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>107.6088</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14490.4838</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>46.7419</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2263.0744</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>30.8</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C124" t="n">
         <v>30.8</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D124" t="n">
         <v>30.8</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E124" t="n">
         <v>30.8</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F124" t="n">
         <v>34714.3156</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G124" t="n">
         <v>-114102.59046275</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C125" t="n">
         <v>30.9</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="D125" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>64314.00162491</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-49788.58883784001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11.5666</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-49800.15543784001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>293.3948</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-49506.76063784001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>30</v>
+      </c>
+      <c r="D128" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>30</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4934.385</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-54441.14563784001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>278.7249</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-54162.42073784001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>265.6477</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-54428.06843784001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>254.8475</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-54682.91593784001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>67642.1841</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-122325.10003784</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-122315.10003784</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11410.228</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-122315.10003784</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>273</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-122588.10003784</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12269.7336</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-122588.10003784</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6633.6033</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-122588.10003784</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F96" t="n">
-        <v>64314.00162491</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-49788.58883784001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-122578.10003784</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K138" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>36.1818</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-122578.10003784</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34.3792</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-122612.47923784</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C97" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E97" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>11.5666</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-49800.15543784001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="K97" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>56840.8972</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-179453.37643784</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C98" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E98" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F98" t="n">
-        <v>293.3948</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-49506.76063784001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-179443.37643784</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>30</v>
-      </c>
-      <c r="D99" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E99" t="n">
-        <v>30</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4934.385</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-54441.14563784001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-179453.37643784</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K143" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D100" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>278.7249</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-54162.42073784001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-179443.37643784</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K144" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>265.6477</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-54428.06843784001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>30</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>30</v>
+      </c>
+      <c r="E145" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>22</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-179465.37643784</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D102" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E102" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F102" t="n">
-        <v>254.8475</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-54682.91593784001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K102" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E103" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>67642.1841</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-122325.10003784</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>10</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-122315.10003784</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K104" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C105" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D105" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E105" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F105" t="n">
-        <v>11410.228</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-122315.10003784</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D106" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F106" t="n">
-        <v>273</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D107" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E107" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F107" t="n">
-        <v>12269.7336</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K107" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D108" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6633.6033</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C109" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-122578.10003784</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K109" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F110" t="n">
-        <v>36.1818</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-122578.10003784</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K110" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>34.3792</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-122612.47923784</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K111" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>56840.8972</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-179453.37643784</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>10</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-179443.37643784</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>10</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-179453.37643784</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-179443.37643784</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K115" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>30</v>
-      </c>
-      <c r="C116" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>30</v>
-      </c>
-      <c r="E116" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>22</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-179465.37643784</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K116" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>226378.6397</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>200342.77734286</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>200342.77734286</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>216592.19444286</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>15944.11264286</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-18606.96795714</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-56283.72755714</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>96265.50074285998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>96165.85174285997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>73938.78664285998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>53109.99754285998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>48306.92333724998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>48316.92333724998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>28316.92333724998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>28326.92333724998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>23109.40253724998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>23134.40253724998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>18089.43363724998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>18111.19303724998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>18111.19303724998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-9398.541762750017</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-21744.79306275002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-27400.59616275002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,19 @@
         <v>-20588.95436275002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>31.2</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4019,23 @@
         <v>-20588.95436275002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4062,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4101,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4165,15 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4198,15 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4231,15 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4264,19 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>31.2</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4301,23 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4342,23 @@
         <v>-79280.66606275001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4383,23 @@
         <v>-79388.27486275001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="J120" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4424,23 @@
         <v>-79388.27486275001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4465,23 @@
         <v>-79388.27486275001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4508,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4545,23 @@
         <v>-114102.59046275</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J124" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4586,23 @@
         <v>-49788.58883784001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>30.8</v>
+      </c>
+      <c r="J125" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4627,23 @@
         <v>-49800.15543784001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4668,23 @@
         <v>-49506.76063784001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="J127" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4709,23 @@
         <v>-54441.14563784001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4750,23 @@
         <v>-54162.42073784001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J129" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4791,23 @@
         <v>-54428.06843784001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4832,23 @@
         <v>-54682.91593784001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>30.8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4873,23 @@
         <v>-122325.10003784</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4914,23 @@
         <v>-122315.10003784</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>29.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4955,23 @@
         <v>-122315.10003784</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4996,23 @@
         <v>-122588.10003784</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,22 +5037,23 @@
         <v>-122588.10003784</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="J136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5320,24 +5078,23 @@
         <v>-122588.10003784</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
         <v>29.7</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5362,26 +5119,23 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="J138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5406,22 +5160,23 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="J139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5446,26 +5201,23 @@
         <v>-122612.47923784</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="J140" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K140" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5490,26 +5242,23 @@
         <v>-179453.37643784</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="J141" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K141" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5534,26 +5283,23 @@
         <v>-179443.37643784</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="J142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5578,26 +5324,23 @@
         <v>-179453.37643784</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="J143" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K143" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5622,26 +5365,23 @@
         <v>-179443.37643784</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="J144" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K144" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5666,28 +5406,25 @@
         <v>-179465.37643784</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="J145" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K145" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
+        <v>31.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>226378.6397</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>200342.77734286</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>200342.77734286</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>216592.19444286</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>15944.11264286</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-18606.96795714</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-56283.72755714</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>73229.98584285997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>73279.98584285997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>71422.14564285996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>71422.14564285996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>71422.14564285996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>71369.14564285996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>71379.14564285996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>71379.14564285996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>71379.14564285996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>71376.56884285997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>71265.56884285997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>96265.50074285998</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>96165.85174285997</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>73938.78664285998</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>53109.99754285998</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>48306.92333724998</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>48316.92333724998</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>28316.92333724998</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>28326.92333724998</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>23109.40253724998</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>23134.40253724998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>18089.43363724998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>18111.19303724998</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>18111.19303724998</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9398.541762750017</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-21744.79306275002</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-27400.59616275002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3982,14 +3982,10 @@
         <v>-20588.95436275002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>31.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4019,19 +4015,11 @@
         <v>-20588.95436275002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4063,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4165,7 +4147,7 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4180,7 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4213,7 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,14 +4246,10 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>31.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4301,919 +4279,765 @@
         <v>-68288.56676275001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>31</v>
+      </c>
+      <c r="D119" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>31</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10992.0993</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-79280.66606275001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>107.6088</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14490.4838</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>46.7419</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2263.0744</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-79388.27486275001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>34714.3156</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-114102.59046275</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>64314.00162491</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-49788.58883784001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11.5666</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-49800.15543784001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>293.3948</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-49506.76063784001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>30</v>
+      </c>
+      <c r="D128" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>30</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4934.385</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-54441.14563784001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>278.7249</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-54162.42073784001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>265.6477</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-54428.06843784001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>254.8475</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-54682.91593784001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>67642.1841</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-122325.10003784</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-122315.10003784</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11410.228</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-122315.10003784</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>273</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-122588.10003784</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12269.7336</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-122588.10003784</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6633.6033</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-122588.10003784</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-122578.10003784</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J138" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>31</v>
-      </c>
-      <c r="D119" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E119" t="n">
-        <v>31</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10992.0993</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-79280.66606275001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>36.1818</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-122578.10003784</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34.3792</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-122612.47923784</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F120" t="n">
-        <v>107.6088</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>31</v>
-      </c>
-      <c r="J120" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>14490.4838</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J121" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D122" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E122" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>46.7419</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2263.0744</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>34714.3156</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-114102.59046275</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J124" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>64314.00162491</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-49788.58883784001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J125" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C126" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11.5666</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-49800.15543784001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>293.3948</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-49506.76063784001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>30</v>
-      </c>
-      <c r="D128" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>30</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4934.385</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-54441.14563784001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J128" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>278.7249</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-54162.42073784001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>30</v>
-      </c>
-      <c r="J129" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>265.6477</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-54428.06843784001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E131" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>254.8475</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-54682.91593784001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>67642.1841</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-122325.10003784</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D133" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E133" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-122315.10003784</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D134" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>11410.228</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-122315.10003784</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>273</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J135" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>12269.7336</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J136" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6633.6033</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-122578.10003784</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F139" t="n">
-        <v>36.1818</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-122578.10003784</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J139" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>34.3792</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-122612.47923784</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5242,13 +5066,13 @@
         <v>-179453.37643784</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>30.1</v>
       </c>
       <c r="J141" t="n">
-        <v>31.2</v>
+        <v>29.7</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5283,13 +5107,13 @@
         <v>-179443.37643784</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>29.3</v>
       </c>
       <c r="J142" t="n">
-        <v>31.2</v>
+        <v>29.7</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5324,13 +5148,13 @@
         <v>-179453.37643784</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>30.4</v>
       </c>
       <c r="J143" t="n">
-        <v>31.2</v>
+        <v>29.7</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5365,13 +5189,13 @@
         <v>-179443.37643784</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>29.4</v>
       </c>
       <c r="J144" t="n">
-        <v>31.2</v>
+        <v>29.7</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5406,13 +5230,13 @@
         <v>-179465.37643784</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>30.4</v>
       </c>
       <c r="J145" t="n">
-        <v>31.2</v>
+        <v>29.7</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5425,6 +5249,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>200342.77734286</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>200342.77734286</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>145134.18094286</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>140842.18094286</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>135863.37734286</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>134914.47534286</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>134924.47534286</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>134724.47534286</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>134524.47534286</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>127618.36714286</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>127714.16464286</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>108898.05824286</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>108918.05824286</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>108907.80824286</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>73229.98584285997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>73279.98584285997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>71422.14564285996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>71422.14564285996</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>71422.14564285996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>71369.14564285996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>71379.14564285996</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>71379.14564285996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>71379.14564285996</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>71376.56884285997</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>71265.56884285997</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -4906,14 +4906,10 @@
         <v>-122588.10003784</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4943,19 +4939,11 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4984,19 +4972,11 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5025,60 +5005,50 @@
         <v>-122612.47923784</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>56840.8972</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-179453.37643784</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D141" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>56840.8972</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-179453.37643784</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5112,9 +5082,7 @@
       <c r="I142" t="n">
         <v>29.3</v>
       </c>
-      <c r="J142" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,9 +5121,7 @@
       <c r="I143" t="n">
         <v>30.4</v>
       </c>
-      <c r="J143" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,9 +5160,7 @@
       <c r="I144" t="n">
         <v>29.4</v>
       </c>
-      <c r="J144" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,9 +5199,7 @@
       <c r="I145" t="n">
         <v>30.4</v>
       </c>
-      <c r="J145" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5249,6 +5211,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -451,7 +451,7 @@
         <v>226378.6397</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>173167.08224286</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>216592.19444286</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>46945.22524286</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>15944.11264286</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>145134.18094286</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>140842.18094286</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>135863.37734286</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>134914.47534286</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>134924.47534286</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>134724.47534286</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>134524.47534286</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>127618.36714286</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>127714.16464286</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>108898.05824286</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>108918.05824286</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>108907.80824286</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -4939,10 +4939,14 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J138" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4972,11 +4976,19 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5017,19 @@
         <v>-122612.47923784</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5063,9 @@
       <c r="I141" t="n">
         <v>30.1</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5082,7 +5104,9 @@
       <c r="I142" t="n">
         <v>29.3</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5121,7 +5145,9 @@
       <c r="I143" t="n">
         <v>30.4</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,7 +5186,9 @@
       <c r="I144" t="n">
         <v>29.4</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5199,7 +5227,9 @@
       <c r="I145" t="n">
         <v>30.4</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-17 BackTest CHR.xlsx
+++ b/BackTest/2019-10-17 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>91646.93240000001</v>
       </c>
       <c r="G2" t="n">
-        <v>226378.6397</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>25840.86235714</v>
       </c>
       <c r="G3" t="n">
-        <v>200537.77734286</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>195</v>
       </c>
       <c r="G4" t="n">
-        <v>200342.77734286</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>683.8275</v>
       </c>
       <c r="G5" t="n">
-        <v>200342.77734286</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>27175.6951</v>
       </c>
       <c r="G6" t="n">
-        <v>173167.08224286</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>43425.1122</v>
       </c>
       <c r="G7" t="n">
-        <v>216592.19444286</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>169646.9692</v>
       </c>
       <c r="G8" t="n">
-        <v>46945.22524286</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>31001.1126</v>
       </c>
       <c r="G9" t="n">
-        <v>15944.11264286</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>70051.1346</v>
       </c>
       <c r="G10" t="n">
-        <v>85995.24724286</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>104602.2152</v>
       </c>
       <c r="G11" t="n">
-        <v>-18606.96795714</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>359.3395</v>
       </c>
       <c r="G12" t="n">
-        <v>-18966.30745714</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>107.9411</v>
       </c>
       <c r="G13" t="n">
-        <v>-18858.36635714</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-18868.36635714</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>37415.3612</v>
       </c>
       <c r="G15" t="n">
-        <v>-56283.72755714</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>210</v>
       </c>
       <c r="G16" t="n">
-        <v>-56073.72755714</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1434.4514</v>
       </c>
       <c r="G17" t="n">
-        <v>-57508.17895714</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-57518.17895714</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>39937.5566</v>
       </c>
       <c r="G19" t="n">
-        <v>-97455.73555714</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>25373.1678</v>
       </c>
       <c r="G20" t="n">
-        <v>-72082.56775714</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>5875.311</v>
       </c>
       <c r="G21" t="n">
-        <v>-66207.25675714</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>11407.3883</v>
       </c>
       <c r="G22" t="n">
-        <v>-66207.25675714</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>187269.0136</v>
       </c>
       <c r="G23" t="n">
-        <v>121061.75684286</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>24072.4241</v>
       </c>
       <c r="G24" t="n">
-        <v>145134.18094286</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2647.5757</v>
       </c>
       <c r="G25" t="n">
-        <v>145134.18094286</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>47.8212</v>
       </c>
       <c r="G26" t="n">
-        <v>145134.18094286</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4292</v>
       </c>
       <c r="G27" t="n">
-        <v>140842.18094286</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4978.8036</v>
       </c>
       <c r="G28" t="n">
-        <v>135863.37734286</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>948.902</v>
       </c>
       <c r="G29" t="n">
-        <v>134914.47534286</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>134924.47534286</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>134724.47534286</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>134524.47534286</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>6906.1082</v>
       </c>
       <c r="G33" t="n">
-        <v>127618.36714286</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>95.7975</v>
       </c>
       <c r="G34" t="n">
-        <v>127714.16464286</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>18816.1064</v>
       </c>
       <c r="G35" t="n">
-        <v>108898.05824286</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>108918.05824286</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10.25</v>
       </c>
       <c r="G37" t="n">
-        <v>108907.80824286</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>783.5925</v>
       </c>
       <c r="G38" t="n">
-        <v>109691.40074286</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>11805.1599</v>
       </c>
       <c r="G39" t="n">
-        <v>109691.40074286</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>6297.2171</v>
       </c>
       <c r="G40" t="n">
-        <v>115988.61784286</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>32906.2473</v>
       </c>
       <c r="G41" t="n">
-        <v>115988.61784286</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>42758.632</v>
       </c>
       <c r="G42" t="n">
-        <v>73229.98584285997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>73279.98584285997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1857.8402</v>
       </c>
       <c r="G44" t="n">
-        <v>71422.14564285996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>25266.3785</v>
       </c>
       <c r="G45" t="n">
-        <v>71422.14564285996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>5363.7351</v>
       </c>
       <c r="G46" t="n">
-        <v>71422.14564285996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>53</v>
       </c>
       <c r="G47" t="n">
-        <v>71369.14564285996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>71379.14564285996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>12517.9099</v>
       </c>
       <c r="G49" t="n">
-        <v>71379.14564285996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>110</v>
       </c>
       <c r="G50" t="n">
-        <v>71379.14564285996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>159.6002</v>
       </c>
       <c r="G51" t="n">
-        <v>71379.14564285996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2.5768</v>
       </c>
       <c r="G52" t="n">
-        <v>71376.56884285997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>111</v>
       </c>
       <c r="G53" t="n">
-        <v>71265.56884285997</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>43.5048</v>
       </c>
       <c r="G54" t="n">
-        <v>71265.56884285997</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>19831.3204</v>
       </c>
       <c r="G55" t="n">
-        <v>71265.56884285997</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>40530.6172</v>
       </c>
       <c r="G56" t="n">
-        <v>30734.95164285997</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>38725.8486</v>
       </c>
       <c r="G57" t="n">
-        <v>30734.95164285997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>9409.6096</v>
       </c>
       <c r="G58" t="n">
-        <v>21325.34204285997</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>79914.15640000001</v>
       </c>
       <c r="G59" t="n">
-        <v>101239.49844286</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>17447.9721</v>
       </c>
       <c r="G60" t="n">
-        <v>83791.52634285997</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>12138.7506</v>
       </c>
       <c r="G61" t="n">
-        <v>95930.27694285997</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2394</v>
       </c>
       <c r="G62" t="n">
-        <v>95930.27694285997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>11336.5217</v>
       </c>
       <c r="G63" t="n">
-        <v>95930.27694285997</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>410</v>
       </c>
       <c r="G64" t="n">
-        <v>96340.27694285997</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>74.7762</v>
       </c>
       <c r="G65" t="n">
-        <v>96265.50074285998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>30</v>
       </c>
       <c r="G66" t="n">
-        <v>96235.50074285998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>69.649</v>
       </c>
       <c r="G67" t="n">
-        <v>96165.85174285997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>96165.85174285997</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>22227.0651</v>
       </c>
       <c r="G69" t="n">
-        <v>73938.78664285998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>6475.9302</v>
       </c>
       <c r="G70" t="n">
-        <v>73938.78664285998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>78.70659999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>74017.49324285999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>14477.7553</v>
       </c>
       <c r="G72" t="n">
-        <v>59539.73794285998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>11218.5314</v>
       </c>
       <c r="G73" t="n">
-        <v>59539.73794285998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>59569.73794285998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>6459.7404</v>
       </c>
       <c r="G75" t="n">
-        <v>53109.99754285998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>4355.9479</v>
       </c>
       <c r="G76" t="n">
-        <v>53109.99754285998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>13016.5853</v>
       </c>
       <c r="G77" t="n">
-        <v>53109.99754285998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2155.75839439</v>
       </c>
       <c r="G78" t="n">
-        <v>55265.75593724998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>6492.991</v>
       </c>
       <c r="G79" t="n">
-        <v>48772.76493724998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>465.8416</v>
       </c>
       <c r="G80" t="n">
-        <v>48306.92333724998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>48316.92333724998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>20000</v>
       </c>
       <c r="G82" t="n">
-        <v>28316.92333724998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>28326.92333724998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>5217.5208</v>
       </c>
       <c r="G84" t="n">
-        <v>23109.40253724998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>25</v>
       </c>
       <c r="G85" t="n">
-        <v>23134.40253724998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>5044.9689</v>
       </c>
       <c r="G86" t="n">
-        <v>18089.43363724998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>21.7594</v>
       </c>
       <c r="G87" t="n">
-        <v>18111.19303724998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>18111.19303724998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>18111.19303724998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>27509.7348</v>
       </c>
       <c r="G90" t="n">
-        <v>-9398.541762750017</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>25</v>
       </c>
       <c r="G91" t="n">
-        <v>-9373.541762750017</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>12403.2513</v>
       </c>
       <c r="G92" t="n">
-        <v>-21776.79306275002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>32</v>
       </c>
       <c r="G93" t="n">
-        <v>-21744.79306275002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>-21744.79306275002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>211</v>
       </c>
       <c r="G95" t="n">
-        <v>-21955.79306275002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>5492.8031</v>
       </c>
       <c r="G96" t="n">
-        <v>-27448.59616275002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>48</v>
       </c>
       <c r="G97" t="n">
-        <v>-27400.59616275002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>39</v>
       </c>
       <c r="G98" t="n">
-        <v>-27400.59616275002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>87</v>
       </c>
       <c r="G99" t="n">
-        <v>-27487.59616275002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>95</v>
       </c>
       <c r="G100" t="n">
-        <v>-27392.59616275002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>5465.0719</v>
       </c>
       <c r="G101" t="n">
-        <v>-27392.59616275002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>11942.6418</v>
       </c>
       <c r="G102" t="n">
-        <v>-15449.95436275002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1178.1904</v>
       </c>
       <c r="G103" t="n">
-        <v>-15449.95436275002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>2010</v>
       </c>
       <c r="G104" t="n">
-        <v>-17459.95436275002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>3129</v>
       </c>
       <c r="G105" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>150.1587</v>
       </c>
       <c r="G106" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2627</v>
       </c>
       <c r="G107" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>5517</v>
       </c>
       <c r="G108" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>5836</v>
       </c>
       <c r="G109" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>5255</v>
       </c>
       <c r="G110" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2890</v>
       </c>
       <c r="G111" t="n">
-        <v>-20588.95436275002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>210</v>
       </c>
       <c r="G112" t="n">
-        <v>-20378.95436275002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1909</v>
       </c>
       <c r="G113" t="n">
-        <v>-22287.95436275002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>46000.6124</v>
       </c>
       <c r="G114" t="n">
-        <v>-68288.56676275001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>5686</v>
       </c>
       <c r="G115" t="n">
-        <v>-68288.56676275001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>3921.2472</v>
       </c>
       <c r="G116" t="n">
-        <v>-68288.56676275001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2598</v>
       </c>
       <c r="G117" t="n">
-        <v>-68288.56676275001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>5419.8518</v>
       </c>
       <c r="G118" t="n">
-        <v>-68288.56676275001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>10992.0993</v>
       </c>
       <c r="G119" t="n">
-        <v>-79280.66606275001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>107.6088</v>
       </c>
       <c r="G120" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>14490.4838</v>
       </c>
       <c r="G121" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>46.7419</v>
       </c>
       <c r="G122" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>2263.0744</v>
       </c>
       <c r="G123" t="n">
-        <v>-79388.27486275001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>34714.3156</v>
       </c>
       <c r="G124" t="n">
-        <v>-114102.59046275</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>64314.00162491</v>
       </c>
       <c r="G125" t="n">
-        <v>-49788.58883784001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>11.5666</v>
       </c>
       <c r="G126" t="n">
-        <v>-49800.15543784001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>293.3948</v>
       </c>
       <c r="G127" t="n">
-        <v>-49506.76063784001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>4934.385</v>
       </c>
       <c r="G128" t="n">
-        <v>-54441.14563784001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>278.7249</v>
       </c>
       <c r="G129" t="n">
-        <v>-54162.42073784001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>265.6477</v>
       </c>
       <c r="G130" t="n">
-        <v>-54428.06843784001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>254.8475</v>
       </c>
       <c r="G131" t="n">
-        <v>-54682.91593784001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>67642.1841</v>
       </c>
       <c r="G132" t="n">
-        <v>-122325.10003784</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-122315.10003784</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>11410.228</v>
       </c>
       <c r="G134" t="n">
-        <v>-122315.10003784</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>273</v>
       </c>
       <c r="G135" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>12269.7336</v>
       </c>
       <c r="G136" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>6633.6033</v>
       </c>
       <c r="G137" t="n">
-        <v>-122588.10003784</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,22 +4523,19 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>-122578.10003784</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>29.7</v>
       </c>
       <c r="I138" t="n">
         <v>29.7</v>
       </c>
-      <c r="J138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4973,26 +4557,23 @@
         <v>36.1818</v>
       </c>
       <c r="G139" t="n">
-        <v>-122578.10003784</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>30.3</v>
       </c>
       <c r="I139" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J139" t="n">
         <v>29.7</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5014,26 +4595,23 @@
         <v>34.3792</v>
       </c>
       <c r="G140" t="n">
-        <v>-122612.47923784</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>30.3</v>
       </c>
       <c r="I140" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J140" t="n">
         <v>29.7</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5055,26 +4633,23 @@
         <v>56840.8972</v>
       </c>
       <c r="G141" t="n">
-        <v>-179453.37643784</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>30.1</v>
       </c>
       <c r="I141" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J141" t="n">
         <v>29.7</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5096,26 +4671,23 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-179443.37643784</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>29.3</v>
       </c>
       <c r="I142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J142" t="n">
         <v>29.7</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5137,26 +4709,23 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-179453.37643784</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>30.4</v>
       </c>
       <c r="I143" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J143" t="n">
         <v>29.7</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5178,26 +4747,23 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-179443.37643784</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>29.4</v>
       </c>
       <c r="I144" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J144" t="n">
         <v>29.7</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5219,26 +4785,23 @@
         <v>22</v>
       </c>
       <c r="G145" t="n">
-        <v>-179465.37643784</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>30.4</v>
       </c>
       <c r="I145" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J145" t="n">
         <v>29.7</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
